--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_21.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_21.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kenichi Shimizu</t>
+          <t>Nanami Ishikawa</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kenichi Shimizu</t>
+          <t>Nanami Ishikawa</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kenichi Shimizu</t>
+          <t>Nanami Ishikawa</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Kenichi Shimizu</t>
+          <t>Nanami Ishikawa</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Kenichi Shimizu</t>
+          <t>Nanami Ishikawa</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Kenichi Shimizu</t>
+          <t>Nanami Ishikawa</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kenichi Shimizu</t>
+          <t>Nanami Ishikawa</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kenichi Shimizu</t>
+          <t>Nanami Ishikawa</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kenichi Shimizu</t>
+          <t>Nanami Ishikawa</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kenichi Shimizu</t>
+          <t>Nanami Ishikawa</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Kenichi Shimizu</t>
+          <t>Nanami Ishikawa</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Kenichi Shimizu</t>
+          <t>Nanami Ishikawa</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Kenichi Shimizu</t>
+          <t>Nanami Ishikawa</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Kenichi Shimizu</t>
+          <t>Nanami Ishikawa</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kenichi Shimizu</t>
+          <t>Nanami Ishikawa</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
